--- a/data/trans_camb/P31_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P31_2_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,97</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>11,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,98</t>
+          <t>8,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 16,72</t>
+          <t>-3,54; 17,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 14,18</t>
+          <t>-14,9; 13,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 14,85</t>
+          <t>-11,94; 15,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 16,7</t>
+          <t>-16,84; 15,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 13,44</t>
+          <t>-0,03; 23,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,61; 13,37</t>
+          <t>-6,57; 21,82</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,91; 13,15</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 14,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 15,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>-1,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 20,87</t>
+          <t>-3,64; 22,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 17,48</t>
+          <t>-16,16; 17,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 18,37</t>
+          <t>-12,71; 18,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 21,65</t>
+          <t>-18,8; 20,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,76</t>
+          <t>0,02; 33,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,76; 16,12</t>
+          <t>-7,32; 30,28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 16,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 18,25</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-5,96; 19,07</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 5,95</t>
+          <t>-6,67; 8,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 5,82</t>
+          <t>-5,06; 9,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 10,32</t>
+          <t>-10,21; 6,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 11,24</t>
+          <t>-4,6; 9,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 6,2</t>
+          <t>-5,24; 9,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 6,9</t>
+          <t>-6,35; 8,38</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 7,46</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,7; 8,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 5,0</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 7,01</t>
+          <t>-7,37; 10,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 6,82</t>
+          <t>-5,63; 11,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 12,62</t>
+          <t>-11,3; 7,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 13,73</t>
+          <t>-5,02; 12,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 7,4</t>
+          <t>-5,87; 11,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 8,19</t>
+          <t>-7,07; 10,26</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 8,99</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 9,78</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-6,18; 5,97</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 6,76</t>
+          <t>-10,11; 9,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 11,67</t>
+          <t>-4,85; 13,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 4,68</t>
+          <t>-11,81; 8,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,1</t>
+          <t>-9,69; 7,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,95</t>
+          <t>1,79; 16,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 9,58</t>
+          <t>-6,91; 9,68</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 5,89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,43; 13,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; 5,98</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-0,13%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-1,63%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-0,91%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,53%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-2,06%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,27%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,54%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 8,64</t>
+          <t>-11,86; 11,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 14,7</t>
+          <t>-5,4; 18,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 5,64</t>
+          <t>-13,48; 10,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 14,08</t>
+          <t>-11,44; 10,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 4,89</t>
+          <t>2,01; 22,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,94</t>
+          <t>-8,07; 12,51</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,38; 7,55</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 16,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 7,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 6,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 9,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 4,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 5,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 8,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 5,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,31</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6,11</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>4,73</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,05; 6,88</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,08; 8,44</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 5,59</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 6,62</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 10,73</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 7,86</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,73; 5,09</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 8,52</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 4,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 8,39</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 10,3</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; 6,8</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 8,18</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 13,37</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 9,63</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-3,17; 6,09</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 10,27</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-3,43; 5,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
